--- a/GanttFinal.xlsx
+++ b/GanttFinal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
                   <c:v>43091</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43091</c:v>
+                  <c:v>43128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,13 +676,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -694,7 +694,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5977,11 +5977,11 @@
         <v>43091</v>
       </c>
       <c r="D19" s="9">
-        <v>43133</v>
+        <v>43118</v>
       </c>
       <c r="E19" s="12">
         <f t="shared" ref="E19:E25" si="1">D19-C19</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -6245,11 +6245,11 @@
         <v>43091</v>
       </c>
       <c r="D20" s="9">
-        <v>43133</v>
+        <v>43118</v>
       </c>
       <c r="E20" s="12">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -6513,11 +6513,11 @@
         <v>43103</v>
       </c>
       <c r="D21" s="17">
-        <v>43117</v>
+        <v>43120</v>
       </c>
       <c r="E21" s="12">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -7578,14 +7578,14 @@
         <v>21</v>
       </c>
       <c r="C25" s="16">
-        <v>43091</v>
+        <v>43128</v>
       </c>
       <c r="D25" s="19">
         <v>43133</v>
       </c>
       <c r="E25" s="12">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
